--- a/artfynd/A 55280-2022.xlsx
+++ b/artfynd/A 55280-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111224901</v>
+        <v>111224900</v>
       </c>
       <c r="B2" t="n">
-        <v>78536</v>
+        <v>94134</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>229497</v>
+        <v>53</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>591283.1098378194</v>
+        <v>591293.2432706917</v>
       </c>
       <c r="R2" t="n">
-        <v>6831246.359872178</v>
+        <v>6831223.7747099</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -806,10 +806,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111224900</v>
+        <v>111224901</v>
       </c>
       <c r="B3" t="n">
-        <v>94134</v>
+        <v>78536</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,25 +818,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>229497</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>591293.2432706917</v>
+        <v>591283.1098378194</v>
       </c>
       <c r="R3" t="n">
-        <v>6831223.7747099</v>
+        <v>6831246.359872178</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,7 +914,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -932,10 +932,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111224898</v>
+        <v>111224897</v>
       </c>
       <c r="B4" t="n">
-        <v>89423</v>
+        <v>89665</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -948,21 +948,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>73</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Pilát) Audet</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>591399.6551599597</v>
+        <v>591418.1863659774</v>
       </c>
       <c r="R4" t="n">
-        <v>6831202.783271533</v>
+        <v>6831223.27014201</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>låga av asp</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1058,10 +1058,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111224899</v>
+        <v>111224896</v>
       </c>
       <c r="B5" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1074,21 +1074,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>591359.3396854488</v>
+        <v>591481.3967858786</v>
       </c>
       <c r="R5" t="n">
-        <v>6831212.667286294</v>
+        <v>6831231.132917581</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1184,10 +1184,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111224902</v>
+        <v>111224898</v>
       </c>
       <c r="B6" t="n">
-        <v>94134</v>
+        <v>89423</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1200,21 +1200,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>591415.8861537643</v>
+        <v>591399.6551599597</v>
       </c>
       <c r="R6" t="n">
-        <v>6831274.152232359</v>
+        <v>6831202.783271533</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>låga av asp</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111224896</v>
+        <v>111224902</v>
       </c>
       <c r="B7" t="n">
-        <v>89423</v>
+        <v>94134</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1326,21 +1326,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>53</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>591481.3967858786</v>
+        <v>591415.8861537643</v>
       </c>
       <c r="R7" t="n">
-        <v>6831231.132917581</v>
+        <v>6831274.152232359</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>låga av asp</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1436,10 +1436,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111224897</v>
+        <v>111224899</v>
       </c>
       <c r="B8" t="n">
-        <v>89665</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1452,21 +1452,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>73</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>591418.1863659774</v>
+        <v>591359.3396854488</v>
       </c>
       <c r="R8" t="n">
-        <v>6831223.27014201</v>
+        <v>6831212.667286294</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>låga av asp</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
